--- a/Secret Hitler Card Game Tracker Dark Mode.xlsx
+++ b/Secret Hitler Card Game Tracker Dark Mode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyec\OneDrive - University of Waterloo\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1224" documentId="11_F25DC773A252ABDACC104838619C48AA5BDE58EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D14619B7-6A5A-489D-AC00-65641B273DA1}"/>
+  <xr:revisionPtr revIDLastSave="1236" documentId="11_F25DC773A252ABDACC104838619C48AA5BDE58EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10C8AFF2-78DB-4A57-9DED-CEB6D2391A0D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays whether or not the deck got reshuffled this turn. The deck reshuffles everytime there's strictly less than 3 cards in the deck.</t>
@@ -75,7 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays how many Fascist and Liberal cards are in the deck based on the information that other players provide. Assumes that everyone was telling the truth.</t>
@@ -99,7 +99,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -108,7 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays how many Fascists and Liberals are in the deck. 
@@ -248,7 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -257,7 +257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input the person that the president selected as chancellor in this cell.</t>
@@ -296,7 +296,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -305,7 +305,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input whether or not the election suceeded in this cell.</t>
@@ -368,7 +368,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -377,7 +377,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input the first president. Input in the orange cell below.</t>
@@ -392,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -401,7 +401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input the card that the president claimed to discard in this cell.</t>
@@ -416,7 +416,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -425,7 +425,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input the card that the chancellor claimed to discard in this cell.</t>
@@ -464,7 +464,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -473,7 +473,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input the passed policy here.</t>
@@ -512,7 +512,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -521,7 +521,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input whether or not the president and the chancellor decided to veto the policies.</t>
@@ -536,7 +536,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -545,7 +545,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input whether or not the President and Chancellor disagree about what cards were present.</t>
@@ -560,7 +560,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -569,7 +569,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input whether or not there is a card conflict between the president and chancellor.</t>
@@ -584,7 +584,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -593,7 +593,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the number of Fascist and Liberal policies that were discarded this turn. Assumes everyone is telling the truth.</t>
@@ -608,7 +608,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -617,7 +617,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the number of Fascist or Liberal policies that were enacted this turn.</t>
@@ -632,7 +632,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -641,7 +641,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the total number of Fascist and Liberal cards in the discard pile. Assumes everyone is telling the truth.</t>
@@ -656,7 +656,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -665,7 +665,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the total number of Fascist and Liberal policies enacted.</t>
@@ -680,7 +680,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -689,7 +689,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the number of Fascist and Liberal policies remaining in the deck. Assumes everyone is telling the truth.</t>
@@ -704,7 +704,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -713,7 +713,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the number of people alive. Assumes everyone is telling the truth… JK</t>
@@ -728,7 +728,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -737,7 +737,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Displays the position that the current president is in. Used for calculations, not relevant for players to use.</t>
@@ -752,7 +752,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Skye Chen:</t>
         </r>
@@ -761,7 +761,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Input the usernames of all the players that are playing in seated order. 
@@ -811,7 +811,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="36">
   <si>
     <t>Turn</t>
   </si>
@@ -915,15 +915,17 @@
     <t>Roles</t>
   </si>
   <si>
-    <t>Initial Values (You can edit cells in brown)
-Hide Columns BC after values are initialized</t>
+    <t>Initial Values (You can edit cells in brown)</t>
+  </si>
+  <si>
+    <t>Hide Columns BC after values are initialized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,19 +959,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1370,23 +1359,23 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1423,90 +1412,90 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
@@ -1515,46 +1504,124 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="4" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="4" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="4" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="4" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,38 +1630,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1602,70 +1654,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1677,133 +1675,7 @@
     <cellStyle name="Orange" xfId="1" xr:uid="{0A8D97D4-2B79-44EE-8253-F7D7F8C5AEB8}"/>
     <cellStyle name="Red Text" xfId="4" xr:uid="{88A20F9A-9885-43F8-B039-86E4369A142D}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF480000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000048"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF480000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1A0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F0E03"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F0E03"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF480000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1A0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF480000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1A0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1A0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4343"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF480000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FFFF4343"/>
@@ -2279,8 +2151,10 @@
   <dimension ref="A1:BK1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2295,315 +2169,317 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="75">
+      <c r="C1" s="97"/>
+      <c r="D1" s="82">
         <v>1</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="75">
+      <c r="E1" s="83"/>
+      <c r="F1" s="82">
         <f>D1+1</f>
         <v>2</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="75">
+      <c r="G1" s="83"/>
+      <c r="H1" s="82">
         <f t="shared" ref="H1" si="0">F1+1</f>
         <v>3</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="75">
+      <c r="I1" s="83"/>
+      <c r="J1" s="82">
         <f t="shared" ref="J1" si="1">H1+1</f>
         <v>4</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="75">
+      <c r="K1" s="83"/>
+      <c r="L1" s="82">
         <f t="shared" ref="L1" si="2">J1+1</f>
         <v>5</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="83"/>
+      <c r="N1" s="82">
         <f t="shared" ref="N1" si="3">L1+1</f>
         <v>6</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="83"/>
+      <c r="P1" s="82">
         <f t="shared" ref="P1" si="4">N1+1</f>
         <v>7</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="82">
         <f t="shared" ref="R1" si="5">P1+1</f>
         <v>8</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="75">
+      <c r="S1" s="83"/>
+      <c r="T1" s="82">
         <f t="shared" ref="T1" si="6">R1+1</f>
         <v>9</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="75">
+      <c r="U1" s="83"/>
+      <c r="V1" s="82">
         <f t="shared" ref="V1" si="7">T1+1</f>
         <v>10</v>
       </c>
-      <c r="W1" s="76"/>
-      <c r="X1" s="75">
+      <c r="W1" s="83"/>
+      <c r="X1" s="82">
         <f t="shared" ref="X1" si="8">V1+1</f>
         <v>11</v>
       </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="75">
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="82">
         <f t="shared" ref="Z1" si="9">X1+1</f>
         <v>12</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="75">
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="82">
         <f t="shared" ref="AB1" si="10">Z1+1</f>
         <v>13</v>
       </c>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="75">
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="82">
         <f t="shared" ref="AD1" si="11">AB1+1</f>
         <v>14</v>
       </c>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="75">
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="82">
         <f t="shared" ref="AF1" si="12">AD1+1</f>
         <v>15</v>
       </c>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="75">
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="82">
         <f t="shared" ref="AH1" si="13">AF1+1</f>
         <v>16</v>
       </c>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="75">
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="82">
         <f t="shared" ref="AJ1" si="14">AH1+1</f>
         <v>17</v>
       </c>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="75">
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="82">
         <f t="shared" ref="AL1" si="15">AJ1+1</f>
         <v>18</v>
       </c>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="75">
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="82">
         <f t="shared" ref="AN1" si="16">AL1+1</f>
         <v>19</v>
       </c>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="75">
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="82">
         <f t="shared" ref="AP1" si="17">AN1+1</f>
         <v>20</v>
       </c>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="75">
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="82">
         <f t="shared" ref="AR1" si="18">AP1+1</f>
         <v>21</v>
       </c>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="75">
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="82">
         <f t="shared" ref="AT1" si="19">AR1+1</f>
         <v>22</v>
       </c>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="75">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="82">
         <f t="shared" ref="AV1" si="20">AT1+1</f>
         <v>23</v>
       </c>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="75">
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="82">
         <f t="shared" ref="AX1" si="21">AV1+1</f>
         <v>24</v>
       </c>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="75">
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="82">
         <f t="shared" ref="AZ1" si="22">AX1+1</f>
         <v>25</v>
       </c>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="75">
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="82">
         <f t="shared" ref="BB1" si="23">AZ1+1</f>
         <v>26</v>
       </c>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="75">
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="82">
         <f t="shared" ref="BD1" si="24">BB1+1</f>
         <v>27</v>
       </c>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="75">
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="82">
         <f t="shared" ref="BF1" si="25">BD1+1</f>
         <v>28</v>
       </c>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="75">
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="82">
         <f t="shared" ref="BH1" si="26">BF1+1</f>
         <v>29</v>
       </c>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="75">
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="82">
         <f t="shared" ref="BJ1" si="27">BH1+1</f>
         <v>30</v>
       </c>
-      <c r="BK1" s="76"/>
+      <c r="BK1" s="83"/>
     </row>
     <row r="2" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="75" t="b">
+      <c r="B2" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="75" t="b">
+      <c r="E2" s="83"/>
+      <c r="F2" s="82" t="b">
         <f>IF(SUM(D23:E23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="75" t="b">
+      <c r="G2" s="83"/>
+      <c r="H2" s="82" t="b">
         <f t="shared" ref="H2" si="28">IF(SUM(F23:G23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="75" t="b">
+      <c r="I2" s="83"/>
+      <c r="J2" s="82" t="b">
         <f t="shared" ref="J2" si="29">IF(SUM(H23:I23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="75" t="b">
+      <c r="K2" s="83"/>
+      <c r="L2" s="82" t="b">
         <f t="shared" ref="L2" si="30">IF(SUM(J23:K23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="75" t="b">
+      <c r="M2" s="83"/>
+      <c r="N2" s="82" t="b">
         <f t="shared" ref="N2" si="31">IF(SUM(L23:M23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="75" t="b">
+      <c r="O2" s="83"/>
+      <c r="P2" s="82" t="b">
         <f t="shared" ref="P2" si="32">IF(SUM(N23:O23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="75" t="b">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="82" t="b">
         <f t="shared" ref="R2" si="33">IF(SUM(P23:Q23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="76"/>
-      <c r="T2" s="75" t="b">
+      <c r="S2" s="83"/>
+      <c r="T2" s="82" t="b">
         <f t="shared" ref="T2" si="34">IF(SUM(R23:S23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="75" t="b">
+      <c r="U2" s="83"/>
+      <c r="V2" s="82" t="b">
         <f t="shared" ref="V2" si="35">IF(SUM(T23:U23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="76"/>
-      <c r="X2" s="75" t="b">
+      <c r="W2" s="83"/>
+      <c r="X2" s="82" t="b">
         <f t="shared" ref="X2" si="36">IF(SUM(V23:W23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="75" t="b">
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="82" t="b">
         <f t="shared" ref="Z2" si="37">IF(SUM(X23:Y23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="75" t="b">
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="82" t="b">
         <f t="shared" ref="AB2" si="38">IF(SUM(Z23:AA23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="75" t="b">
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="82" t="b">
         <f t="shared" ref="AD2" si="39">IF(SUM(AB23:AC23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="75" t="b">
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="82" t="b">
         <f t="shared" ref="AF2" si="40">IF(SUM(AD23:AE23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="75" t="b">
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="82" t="b">
         <f t="shared" ref="AH2" si="41">IF(SUM(AF23:AG23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="75" t="b">
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="82" t="b">
         <f t="shared" ref="AJ2" si="42">IF(SUM(AH23:AI23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="75" t="b">
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="82" t="b">
         <f t="shared" ref="AL2" si="43">IF(SUM(AJ23:AK23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="75" t="b">
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="82" t="b">
         <f t="shared" ref="AN2" si="44">IF(SUM(AL23:AM23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="75" t="b">
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="82" t="b">
         <f t="shared" ref="AP2" si="45">IF(SUM(AN23:AO23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="75" t="b">
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="82" t="b">
         <f t="shared" ref="AR2" si="46">IF(SUM(AP23:AQ23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="75" t="b">
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="82" t="b">
         <f t="shared" ref="AT2" si="47">IF(SUM(AR23:AS23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="75" t="b">
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="82" t="b">
         <f t="shared" ref="AV2" si="48">IF(SUM(AT23:AU23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="75" t="b">
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="82" t="b">
         <f t="shared" ref="AX2" si="49">IF(SUM(AV23:AW23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="75" t="b">
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="82" t="b">
         <f t="shared" ref="AZ2" si="50">IF(SUM(AX23:AY23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="75" t="b">
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="82" t="b">
         <f t="shared" ref="BB2" si="51">IF(SUM(AZ23:BA23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="75" t="b">
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="82" t="b">
         <f t="shared" ref="BD2" si="52">IF(SUM(BB23:BC23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="75" t="b">
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="82" t="b">
         <f t="shared" ref="BF2" si="53">IF(SUM(BD23:BE23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="75" t="b">
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="82" t="b">
         <f t="shared" ref="BH2" si="54">IF(SUM(BF23:BG23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="75" t="b">
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="82" t="b">
         <f t="shared" ref="BJ2" si="55">IF(SUM(BH23:BI23) &lt; 3, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BK2" s="76"/>
+      <c r="BK2" s="83"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -3300,156 +3176,156 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="79">
+      <c r="D6" s="78">
         <f>IF(D4&lt;3,0, HYPGEOMDIST(3,3,D4,SUM(D4:E4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="77">
+      <c r="E6" s="79"/>
+      <c r="F6" s="80">
         <f>IF(F4&lt;3,0, HYPGEOMDIST(3,3,F4,SUM(F4:G4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="77">
+      <c r="G6" s="81"/>
+      <c r="H6" s="80">
         <f t="shared" ref="H6" si="171">IF(H4&lt;3,0, HYPGEOMDIST(3,3,H4,SUM(H4:I4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="77">
+      <c r="I6" s="81"/>
+      <c r="J6" s="80">
         <f t="shared" ref="J6" si="172">IF(J4&lt;3,0, HYPGEOMDIST(3,3,J4,SUM(J4:K4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="77">
+      <c r="K6" s="81"/>
+      <c r="L6" s="80">
         <f t="shared" ref="L6" si="173">IF(L4&lt;3,0, HYPGEOMDIST(3,3,L4,SUM(L4:M4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="M6" s="78"/>
-      <c r="N6" s="77">
+      <c r="M6" s="81"/>
+      <c r="N6" s="80">
         <f t="shared" ref="N6" si="174">IF(N4&lt;3,0, HYPGEOMDIST(3,3,N4,SUM(N4:O4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="77">
+      <c r="O6" s="81"/>
+      <c r="P6" s="80">
         <f t="shared" ref="P6" si="175">IF(P4&lt;3,0, HYPGEOMDIST(3,3,P4,SUM(P4:Q4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="77">
+      <c r="Q6" s="81"/>
+      <c r="R6" s="80">
         <f t="shared" ref="R6" si="176">IF(R4&lt;3,0, HYPGEOMDIST(3,3,R4,SUM(R4:S4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="S6" s="78"/>
-      <c r="T6" s="77">
+      <c r="S6" s="81"/>
+      <c r="T6" s="80">
         <f t="shared" ref="T6" si="177">IF(T4&lt;3,0, HYPGEOMDIST(3,3,T4,SUM(T4:U4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="U6" s="78"/>
-      <c r="V6" s="77">
+      <c r="U6" s="81"/>
+      <c r="V6" s="80">
         <f t="shared" ref="V6" si="178">IF(V4&lt;3,0, HYPGEOMDIST(3,3,V4,SUM(V4:W4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="W6" s="78"/>
-      <c r="X6" s="77">
+      <c r="W6" s="81"/>
+      <c r="X6" s="80">
         <f t="shared" ref="X6" si="179">IF(X4&lt;3,0, HYPGEOMDIST(3,3,X4,SUM(X4:Y4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="77">
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="80">
         <f t="shared" ref="Z6" si="180">IF(Z4&lt;3,0, HYPGEOMDIST(3,3,Z4,SUM(Z4:AA4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="77">
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="80">
         <f t="shared" ref="AB6" si="181">IF(AB4&lt;3,0, HYPGEOMDIST(3,3,AB4,SUM(AB4:AC4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="77">
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="80">
         <f t="shared" ref="AD6" si="182">IF(AD4&lt;3,0, HYPGEOMDIST(3,3,AD4,SUM(AD4:AE4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="77">
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="80">
         <f t="shared" ref="AF6" si="183">IF(AF4&lt;3,0, HYPGEOMDIST(3,3,AF4,SUM(AF4:AG4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="77">
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="80">
         <f t="shared" ref="AH6" si="184">IF(AH4&lt;3,0, HYPGEOMDIST(3,3,AH4,SUM(AH4:AI4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="77">
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="80">
         <f t="shared" ref="AJ6" si="185">IF(AJ4&lt;3,0, HYPGEOMDIST(3,3,AJ4,SUM(AJ4:AK4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="77">
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="80">
         <f t="shared" ref="AL6" si="186">IF(AL4&lt;3,0, HYPGEOMDIST(3,3,AL4,SUM(AL4:AM4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="77">
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="80">
         <f t="shared" ref="AN6" si="187">IF(AN4&lt;3,0, HYPGEOMDIST(3,3,AN4,SUM(AN4:AO4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="77">
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="80">
         <f t="shared" ref="AP6" si="188">IF(AP4&lt;3,0, HYPGEOMDIST(3,3,AP4,SUM(AP4:AQ4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="77">
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="80">
         <f t="shared" ref="AR6" si="189">IF(AR4&lt;3,0, HYPGEOMDIST(3,3,AR4,SUM(AR4:AS4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="77">
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="80">
         <f t="shared" ref="AT6" si="190">IF(AT4&lt;3,0, HYPGEOMDIST(3,3,AT4,SUM(AT4:AU4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="77">
+      <c r="AU6" s="81"/>
+      <c r="AV6" s="80">
         <f t="shared" ref="AV6" si="191">IF(AV4&lt;3,0, HYPGEOMDIST(3,3,AV4,SUM(AV4:AW4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="77">
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="80">
         <f t="shared" ref="AX6" si="192">IF(AX4&lt;3,0, HYPGEOMDIST(3,3,AX4,SUM(AX4:AY4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="77">
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="80">
         <f t="shared" ref="AZ6" si="193">IF(AZ4&lt;3,0, HYPGEOMDIST(3,3,AZ4,SUM(AZ4:BA4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="77">
+      <c r="BA6" s="81"/>
+      <c r="BB6" s="80">
         <f t="shared" ref="BB6" si="194">IF(BB4&lt;3,0, HYPGEOMDIST(3,3,BB4,SUM(BB4:BC4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="77">
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="80">
         <f t="shared" ref="BD6" si="195">IF(BD4&lt;3,0, HYPGEOMDIST(3,3,BD4,SUM(BD4:BE4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="77">
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="80">
         <f t="shared" ref="BF6" si="196">IF(BF4&lt;3,0, HYPGEOMDIST(3,3,BF4,SUM(BF4:BG4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="77">
+      <c r="BG6" s="81"/>
+      <c r="BH6" s="80">
         <f t="shared" ref="BH6" si="197">IF(BH4&lt;3,0, HYPGEOMDIST(3,3,BH4,SUM(BH4:BI4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="BI6" s="78"/>
-      <c r="BJ6" s="77">
+      <c r="BI6" s="81"/>
+      <c r="BJ6" s="80">
         <f t="shared" ref="BJ6" si="198">IF(BJ4&lt;3,0, HYPGEOMDIST(3,3,BJ4,SUM(BJ4:BK4)))</f>
         <v>0.24264705882352949</v>
       </c>
-      <c r="BK6" s="78"/>
+      <c r="BK6" s="81"/>
     </row>
     <row r="7" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
@@ -3457,156 +3333,156 @@
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="79">
+      <c r="D7" s="78">
         <f>IF(OR(D4&lt;2,E4&lt;1),0, HYPGEOMDIST(2,3,D4,SUM(D4:E4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="79">
+      <c r="E7" s="79"/>
+      <c r="F7" s="78">
         <f>IF(OR(F4&lt;2,G4&lt;1),0, HYPGEOMDIST(2,3,F4,SUM(F4:G4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="79">
+      <c r="G7" s="79"/>
+      <c r="H7" s="78">
         <f t="shared" ref="H7" si="199">IF(OR(H4&lt;2,I4&lt;1),0, HYPGEOMDIST(2,3,H4,SUM(H4:I4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="79">
+      <c r="I7" s="79"/>
+      <c r="J7" s="78">
         <f t="shared" ref="J7" si="200">IF(OR(J4&lt;2,K4&lt;1),0, HYPGEOMDIST(2,3,J4,SUM(J4:K4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="79">
+      <c r="K7" s="79"/>
+      <c r="L7" s="78">
         <f t="shared" ref="L7" si="201">IF(OR(L4&lt;2,M4&lt;1),0, HYPGEOMDIST(2,3,L4,SUM(L4:M4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="79">
+      <c r="M7" s="79"/>
+      <c r="N7" s="78">
         <f t="shared" ref="N7" si="202">IF(OR(N4&lt;2,O4&lt;1),0, HYPGEOMDIST(2,3,N4,SUM(N4:O4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="79">
+      <c r="O7" s="79"/>
+      <c r="P7" s="78">
         <f t="shared" ref="P7" si="203">IF(OR(P4&lt;2,Q4&lt;1),0, HYPGEOMDIST(2,3,P4,SUM(P4:Q4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="79">
+      <c r="Q7" s="79"/>
+      <c r="R7" s="78">
         <f t="shared" ref="R7" si="204">IF(OR(R4&lt;2,S4&lt;1),0, HYPGEOMDIST(2,3,R4,SUM(R4:S4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="79">
+      <c r="S7" s="79"/>
+      <c r="T7" s="78">
         <f t="shared" ref="T7" si="205">IF(OR(T4&lt;2,U4&lt;1),0, HYPGEOMDIST(2,3,T4,SUM(T4:U4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="U7" s="80"/>
-      <c r="V7" s="79">
+      <c r="U7" s="79"/>
+      <c r="V7" s="78">
         <f t="shared" ref="V7" si="206">IF(OR(V4&lt;2,W4&lt;1),0, HYPGEOMDIST(2,3,V4,SUM(V4:W4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="W7" s="80"/>
-      <c r="X7" s="79">
+      <c r="W7" s="79"/>
+      <c r="X7" s="78">
         <f t="shared" ref="X7" si="207">IF(OR(X4&lt;2,Y4&lt;1),0, HYPGEOMDIST(2,3,X4,SUM(X4:Y4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="79">
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="78">
         <f t="shared" ref="Z7" si="208">IF(OR(Z4&lt;2,AA4&lt;1),0, HYPGEOMDIST(2,3,Z4,SUM(Z4:AA4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="79">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="78">
         <f t="shared" ref="AB7" si="209">IF(OR(AB4&lt;2,AC4&lt;1),0, HYPGEOMDIST(2,3,AB4,SUM(AB4:AC4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="79">
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="78">
         <f t="shared" ref="AD7" si="210">IF(OR(AD4&lt;2,AE4&lt;1),0, HYPGEOMDIST(2,3,AD4,SUM(AD4:AE4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="79">
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="78">
         <f t="shared" ref="AF7" si="211">IF(OR(AF4&lt;2,AG4&lt;1),0, HYPGEOMDIST(2,3,AF4,SUM(AF4:AG4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="79">
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="78">
         <f t="shared" ref="AH7" si="212">IF(OR(AH4&lt;2,AI4&lt;1),0, HYPGEOMDIST(2,3,AH4,SUM(AH4:AI4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="79">
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="78">
         <f t="shared" ref="AJ7" si="213">IF(OR(AJ4&lt;2,AK4&lt;1),0, HYPGEOMDIST(2,3,AJ4,SUM(AJ4:AK4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="79">
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="78">
         <f t="shared" ref="AL7" si="214">IF(OR(AL4&lt;2,AM4&lt;1),0, HYPGEOMDIST(2,3,AL4,SUM(AL4:AM4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="79">
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="78">
         <f t="shared" ref="AN7" si="215">IF(OR(AN4&lt;2,AO4&lt;1),0, HYPGEOMDIST(2,3,AN4,SUM(AN4:AO4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AO7" s="80"/>
-      <c r="AP7" s="79">
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="78">
         <f t="shared" ref="AP7" si="216">IF(OR(AP4&lt;2,AQ4&lt;1),0, HYPGEOMDIST(2,3,AP4,SUM(AP4:AQ4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AQ7" s="80"/>
-      <c r="AR7" s="79">
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="78">
         <f t="shared" ref="AR7" si="217">IF(OR(AR4&lt;2,AS4&lt;1),0, HYPGEOMDIST(2,3,AR4,SUM(AR4:AS4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AS7" s="80"/>
-      <c r="AT7" s="79">
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="78">
         <f t="shared" ref="AT7" si="218">IF(OR(AT4&lt;2,AU4&lt;1),0, HYPGEOMDIST(2,3,AT4,SUM(AT4:AU4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AU7" s="80"/>
-      <c r="AV7" s="79">
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="78">
         <f t="shared" ref="AV7" si="219">IF(OR(AV4&lt;2,AW4&lt;1),0, HYPGEOMDIST(2,3,AV4,SUM(AV4:AW4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AW7" s="80"/>
-      <c r="AX7" s="79">
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="78">
         <f t="shared" ref="AX7" si="220">IF(OR(AX4&lt;2,AY4&lt;1),0, HYPGEOMDIST(2,3,AX4,SUM(AX4:AY4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="AY7" s="80"/>
-      <c r="AZ7" s="79">
+      <c r="AY7" s="79"/>
+      <c r="AZ7" s="78">
         <f t="shared" ref="AZ7" si="221">IF(OR(AZ4&lt;2,BA4&lt;1),0, HYPGEOMDIST(2,3,AZ4,SUM(AZ4:BA4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="BA7" s="80"/>
-      <c r="BB7" s="79">
+      <c r="BA7" s="79"/>
+      <c r="BB7" s="78">
         <f t="shared" ref="BB7" si="222">IF(OR(BB4&lt;2,BC4&lt;1),0, HYPGEOMDIST(2,3,BB4,SUM(BB4:BC4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="BC7" s="80"/>
-      <c r="BD7" s="79">
+      <c r="BC7" s="79"/>
+      <c r="BD7" s="78">
         <f t="shared" ref="BD7" si="223">IF(OR(BD4&lt;2,BE4&lt;1),0, HYPGEOMDIST(2,3,BD4,SUM(BD4:BE4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="BE7" s="80"/>
-      <c r="BF7" s="79">
+      <c r="BE7" s="79"/>
+      <c r="BF7" s="78">
         <f t="shared" ref="BF7" si="224">IF(OR(BF4&lt;2,BG4&lt;1),0, HYPGEOMDIST(2,3,BF4,SUM(BF4:BG4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="79">
+      <c r="BG7" s="79"/>
+      <c r="BH7" s="78">
         <f t="shared" ref="BH7" si="225">IF(OR(BH4&lt;2,BI4&lt;1),0, HYPGEOMDIST(2,3,BH4,SUM(BH4:BI4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="BI7" s="80"/>
-      <c r="BJ7" s="79">
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="78">
         <f t="shared" ref="BJ7" si="226">IF(OR(BJ4&lt;2,BK4&lt;1),0, HYPGEOMDIST(2,3,BJ4,SUM(BJ4:BK4)))</f>
         <v>0.48529411764705882</v>
       </c>
-      <c r="BK7" s="80"/>
+      <c r="BK7" s="79"/>
     </row>
     <row r="8" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
@@ -3614,156 +3490,156 @@
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="79">
+      <c r="D8" s="78">
         <f>IF(OR(D4&lt;1,E4&lt;2),0, HYPGEOMDIST(1,3,D4,SUM(D4:E4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="79">
+      <c r="E8" s="79"/>
+      <c r="F8" s="78">
         <f>IF(OR(F4&lt;1,G4&lt;2),0, HYPGEOMDIST(1,3,F4,SUM(F4:G4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="79">
+      <c r="G8" s="79"/>
+      <c r="H8" s="78">
         <f t="shared" ref="H8" si="227">IF(OR(H4&lt;1,I4&lt;2),0, HYPGEOMDIST(1,3,H4,SUM(H4:I4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="79">
+      <c r="I8" s="79"/>
+      <c r="J8" s="78">
         <f t="shared" ref="J8" si="228">IF(OR(J4&lt;1,K4&lt;2),0, HYPGEOMDIST(1,3,J4,SUM(J4:K4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="79">
+      <c r="K8" s="79"/>
+      <c r="L8" s="78">
         <f t="shared" ref="L8" si="229">IF(OR(L4&lt;1,M4&lt;2),0, HYPGEOMDIST(1,3,L4,SUM(L4:M4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="79">
+      <c r="M8" s="79"/>
+      <c r="N8" s="78">
         <f t="shared" ref="N8" si="230">IF(OR(N4&lt;1,O4&lt;2),0, HYPGEOMDIST(1,3,N4,SUM(N4:O4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="79">
+      <c r="O8" s="79"/>
+      <c r="P8" s="78">
         <f t="shared" ref="P8" si="231">IF(OR(P4&lt;1,Q4&lt;2),0, HYPGEOMDIST(1,3,P4,SUM(P4:Q4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="79">
+      <c r="Q8" s="79"/>
+      <c r="R8" s="78">
         <f t="shared" ref="R8" si="232">IF(OR(R4&lt;1,S4&lt;2),0, HYPGEOMDIST(1,3,R4,SUM(R4:S4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="79">
+      <c r="S8" s="79"/>
+      <c r="T8" s="78">
         <f t="shared" ref="T8" si="233">IF(OR(T4&lt;1,U4&lt;2),0, HYPGEOMDIST(1,3,T4,SUM(T4:U4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="U8" s="80"/>
-      <c r="V8" s="79">
+      <c r="U8" s="79"/>
+      <c r="V8" s="78">
         <f t="shared" ref="V8" si="234">IF(OR(V4&lt;1,W4&lt;2),0, HYPGEOMDIST(1,3,V4,SUM(V4:W4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="W8" s="80"/>
-      <c r="X8" s="79">
+      <c r="W8" s="79"/>
+      <c r="X8" s="78">
         <f t="shared" ref="X8" si="235">IF(OR(X4&lt;1,Y4&lt;2),0, HYPGEOMDIST(1,3,X4,SUM(X4:Y4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="79">
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="78">
         <f t="shared" ref="Z8" si="236">IF(OR(Z4&lt;1,AA4&lt;2),0, HYPGEOMDIST(1,3,Z4,SUM(Z4:AA4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="79">
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="78">
         <f t="shared" ref="AB8" si="237">IF(OR(AB4&lt;1,AC4&lt;2),0, HYPGEOMDIST(1,3,AB4,SUM(AB4:AC4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="79">
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="78">
         <f t="shared" ref="AD8" si="238">IF(OR(AD4&lt;1,AE4&lt;2),0, HYPGEOMDIST(1,3,AD4,SUM(AD4:AE4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="79">
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="78">
         <f t="shared" ref="AF8" si="239">IF(OR(AF4&lt;1,AG4&lt;2),0, HYPGEOMDIST(1,3,AF4,SUM(AF4:AG4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="79">
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="78">
         <f t="shared" ref="AH8" si="240">IF(OR(AH4&lt;1,AI4&lt;2),0, HYPGEOMDIST(1,3,AH4,SUM(AH4:AI4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="79">
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="78">
         <f t="shared" ref="AJ8" si="241">IF(OR(AJ4&lt;1,AK4&lt;2),0, HYPGEOMDIST(1,3,AJ4,SUM(AJ4:AK4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="79">
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="78">
         <f t="shared" ref="AL8" si="242">IF(OR(AL4&lt;1,AM4&lt;2),0, HYPGEOMDIST(1,3,AL4,SUM(AL4:AM4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="79">
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="78">
         <f t="shared" ref="AN8" si="243">IF(OR(AN4&lt;1,AO4&lt;2),0, HYPGEOMDIST(1,3,AN4,SUM(AN4:AO4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="79">
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="78">
         <f t="shared" ref="AP8" si="244">IF(OR(AP4&lt;1,AQ4&lt;2),0, HYPGEOMDIST(1,3,AP4,SUM(AP4:AQ4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="79">
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="78">
         <f t="shared" ref="AR8" si="245">IF(OR(AR4&lt;1,AS4&lt;2),0, HYPGEOMDIST(1,3,AR4,SUM(AR4:AS4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AS8" s="80"/>
-      <c r="AT8" s="79">
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="78">
         <f t="shared" ref="AT8" si="246">IF(OR(AT4&lt;1,AU4&lt;2),0, HYPGEOMDIST(1,3,AT4,SUM(AT4:AU4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AU8" s="80"/>
-      <c r="AV8" s="79">
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="78">
         <f t="shared" ref="AV8" si="247">IF(OR(AV4&lt;1,AW4&lt;2),0, HYPGEOMDIST(1,3,AV4,SUM(AV4:AW4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AW8" s="80"/>
-      <c r="AX8" s="79">
+      <c r="AW8" s="79"/>
+      <c r="AX8" s="78">
         <f t="shared" ref="AX8" si="248">IF(OR(AX4&lt;1,AY4&lt;2),0, HYPGEOMDIST(1,3,AX4,SUM(AX4:AY4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="AY8" s="80"/>
-      <c r="AZ8" s="79">
+      <c r="AY8" s="79"/>
+      <c r="AZ8" s="78">
         <f t="shared" ref="AZ8" si="249">IF(OR(AZ4&lt;1,BA4&lt;2),0, HYPGEOMDIST(1,3,AZ4,SUM(AZ4:BA4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="79">
+      <c r="BA8" s="79"/>
+      <c r="BB8" s="78">
         <f t="shared" ref="BB8" si="250">IF(OR(BB4&lt;1,BC4&lt;2),0, HYPGEOMDIST(1,3,BB4,SUM(BB4:BC4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="79">
+      <c r="BC8" s="79"/>
+      <c r="BD8" s="78">
         <f t="shared" ref="BD8" si="251">IF(OR(BD4&lt;1,BE4&lt;2),0, HYPGEOMDIST(1,3,BD4,SUM(BD4:BE4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="BE8" s="80"/>
-      <c r="BF8" s="79">
+      <c r="BE8" s="79"/>
+      <c r="BF8" s="78">
         <f t="shared" ref="BF8" si="252">IF(OR(BF4&lt;1,BG4&lt;2),0, HYPGEOMDIST(1,3,BF4,SUM(BF4:BG4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="BG8" s="80"/>
-      <c r="BH8" s="79">
+      <c r="BG8" s="79"/>
+      <c r="BH8" s="78">
         <f t="shared" ref="BH8" si="253">IF(OR(BH4&lt;1,BI4&lt;2),0, HYPGEOMDIST(1,3,BH4,SUM(BH4:BI4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="BI8" s="80"/>
-      <c r="BJ8" s="79">
+      <c r="BI8" s="79"/>
+      <c r="BJ8" s="78">
         <f t="shared" ref="BJ8" si="254">IF(OR(BJ4&lt;1,BK4&lt;2),0, HYPGEOMDIST(1,3,BJ4,SUM(BJ4:BK4)))</f>
         <v>0.2426470588235293</v>
       </c>
-      <c r="BK8" s="80"/>
+      <c r="BK8" s="79"/>
     </row>
     <row r="9" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
@@ -3771,165 +3647,165 @@
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
-      <c r="D9" s="81">
+      <c r="D9" s="76">
         <f>IF(E4&lt;3,0, HYPGEOMDIST(3,3,E4,SUM(D4:E4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="81">
+      <c r="E9" s="77"/>
+      <c r="F9" s="76">
         <f>IF(G4&lt;3,0, HYPGEOMDIST(3,3,G4,SUM(F4:G4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="81">
+      <c r="G9" s="77"/>
+      <c r="H9" s="76">
         <f t="shared" ref="H9" si="255">IF(I4&lt;3,0, HYPGEOMDIST(3,3,I4,SUM(H4:I4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81">
+      <c r="I9" s="77"/>
+      <c r="J9" s="76">
         <f t="shared" ref="J9" si="256">IF(K4&lt;3,0, HYPGEOMDIST(3,3,K4,SUM(J4:K4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="81">
+      <c r="K9" s="77"/>
+      <c r="L9" s="76">
         <f t="shared" ref="L9" si="257">IF(M4&lt;3,0, HYPGEOMDIST(3,3,M4,SUM(L4:M4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="M9" s="82"/>
-      <c r="N9" s="81">
+      <c r="M9" s="77"/>
+      <c r="N9" s="76">
         <f t="shared" ref="N9" si="258">IF(O4&lt;3,0, HYPGEOMDIST(3,3,O4,SUM(N4:O4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="81">
+      <c r="O9" s="77"/>
+      <c r="P9" s="76">
         <f t="shared" ref="P9" si="259">IF(Q4&lt;3,0, HYPGEOMDIST(3,3,Q4,SUM(P4:Q4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="81">
+      <c r="Q9" s="77"/>
+      <c r="R9" s="76">
         <f t="shared" ref="R9" si="260">IF(S4&lt;3,0, HYPGEOMDIST(3,3,S4,SUM(R4:S4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="S9" s="82"/>
-      <c r="T9" s="81">
+      <c r="S9" s="77"/>
+      <c r="T9" s="76">
         <f t="shared" ref="T9" si="261">IF(U4&lt;3,0, HYPGEOMDIST(3,3,U4,SUM(T4:U4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="U9" s="82"/>
-      <c r="V9" s="81">
+      <c r="U9" s="77"/>
+      <c r="V9" s="76">
         <f t="shared" ref="V9" si="262">IF(W4&lt;3,0, HYPGEOMDIST(3,3,W4,SUM(V4:W4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="W9" s="82"/>
-      <c r="X9" s="81">
+      <c r="W9" s="77"/>
+      <c r="X9" s="76">
         <f t="shared" ref="X9" si="263">IF(Y4&lt;3,0, HYPGEOMDIST(3,3,Y4,SUM(X4:Y4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="81">
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="76">
         <f t="shared" ref="Z9" si="264">IF(AA4&lt;3,0, HYPGEOMDIST(3,3,AA4,SUM(Z4:AA4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="81">
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="76">
         <f t="shared" ref="AB9" si="265">IF(AC4&lt;3,0, HYPGEOMDIST(3,3,AC4,SUM(AB4:AC4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="81">
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="76">
         <f t="shared" ref="AD9" si="266">IF(AE4&lt;3,0, HYPGEOMDIST(3,3,AE4,SUM(AD4:AE4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="81">
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="76">
         <f t="shared" ref="AF9" si="267">IF(AG4&lt;3,0, HYPGEOMDIST(3,3,AG4,SUM(AF4:AG4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="81">
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="76">
         <f t="shared" ref="AH9" si="268">IF(AI4&lt;3,0, HYPGEOMDIST(3,3,AI4,SUM(AH4:AI4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="81">
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="76">
         <f t="shared" ref="AJ9" si="269">IF(AK4&lt;3,0, HYPGEOMDIST(3,3,AK4,SUM(AJ4:AK4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="81">
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="76">
         <f t="shared" ref="AL9" si="270">IF(AM4&lt;3,0, HYPGEOMDIST(3,3,AM4,SUM(AL4:AM4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="81">
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="76">
         <f t="shared" ref="AN9" si="271">IF(AO4&lt;3,0, HYPGEOMDIST(3,3,AO4,SUM(AN4:AO4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="81">
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="76">
         <f t="shared" ref="AP9" si="272">IF(AQ4&lt;3,0, HYPGEOMDIST(3,3,AQ4,SUM(AP4:AQ4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="81">
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="76">
         <f t="shared" ref="AR9" si="273">IF(AS4&lt;3,0, HYPGEOMDIST(3,3,AS4,SUM(AR4:AS4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="81">
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="76">
         <f t="shared" ref="AT9" si="274">IF(AU4&lt;3,0, HYPGEOMDIST(3,3,AU4,SUM(AT4:AU4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="81">
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="76">
         <f t="shared" ref="AV9" si="275">IF(AW4&lt;3,0, HYPGEOMDIST(3,3,AW4,SUM(AV4:AW4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="81">
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="76">
         <f t="shared" ref="AX9" si="276">IF(AY4&lt;3,0, HYPGEOMDIST(3,3,AY4,SUM(AX4:AY4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="81">
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="76">
         <f t="shared" ref="AZ9" si="277">IF(BA4&lt;3,0, HYPGEOMDIST(3,3,BA4,SUM(AZ4:BA4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="BA9" s="82"/>
-      <c r="BB9" s="81">
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="76">
         <f t="shared" ref="BB9" si="278">IF(BC4&lt;3,0, HYPGEOMDIST(3,3,BC4,SUM(BB4:BC4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="81">
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="76">
         <f t="shared" ref="BD9" si="279">IF(BE4&lt;3,0, HYPGEOMDIST(3,3,BE4,SUM(BD4:BE4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="BE9" s="82"/>
-      <c r="BF9" s="81">
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="76">
         <f t="shared" ref="BF9" si="280">IF(BG4&lt;3,0, HYPGEOMDIST(3,3,BG4,SUM(BF4:BG4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="BG9" s="82"/>
-      <c r="BH9" s="81">
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="76">
         <f t="shared" ref="BH9" si="281">IF(BI4&lt;3,0, HYPGEOMDIST(3,3,BI4,SUM(BH4:BI4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="BI9" s="82"/>
-      <c r="BJ9" s="81">
+      <c r="BI9" s="77"/>
+      <c r="BJ9" s="76">
         <f t="shared" ref="BJ9" si="282">IF(BK4&lt;3,0, HYPGEOMDIST(3,3,BK4,SUM(BJ4:BK4)))</f>
         <v>2.9411764705882339E-2</v>
       </c>
-      <c r="BK9" s="82"/>
+      <c r="BK9" s="77"/>
     </row>
     <row r="10" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="34" t="s">
         <v>24</v>
       </c>
@@ -4115,11 +3991,11 @@
       <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="60" t="e" cm="1" vm="1">
+      <c r="B11" s="86" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(Player_List,IF(B15=B27,B24,MOD(MATCH(B15,Player_List,0)+B24-1,B24)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="36" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">IFERROR(INDEX(B27:B36,IF(INDEX(C27:C36,B25),MOD(B25,B24)+1,B25)),"")</f>
         <v/>
@@ -4277,234 +4153,234 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="83"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="83"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="83"/>
-      <c r="BK12" s="84"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="74"/>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="74"/>
+      <c r="BK12" s="75"/>
     </row>
     <row r="13" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="71">
+      <c r="B13" s="94" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="64">
         <f>IF(NOT(D12),MOD(B13,3)+1,0)+IF(B16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="71">
+      <c r="E13" s="65"/>
+      <c r="F13" s="64">
         <f t="shared" ref="F13" si="283">IF(NOT(F12),MOD(D13,3)+1,0)+IF(D16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="71">
+      <c r="G13" s="65"/>
+      <c r="H13" s="64">
         <f t="shared" ref="H13" si="284">IF(NOT(H12),MOD(F13,3)+1,0)+IF(F16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="71">
+      <c r="I13" s="65"/>
+      <c r="J13" s="64">
         <f t="shared" ref="J13" si="285">IF(NOT(J12),MOD(H13,3)+1,0)+IF(H16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="71">
+      <c r="K13" s="65"/>
+      <c r="L13" s="64">
         <f t="shared" ref="L13" si="286">IF(NOT(L12),MOD(J13,3)+1,0)+IF(J16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="71">
+      <c r="M13" s="65"/>
+      <c r="N13" s="64">
         <f t="shared" ref="N13" si="287">IF(NOT(N12),MOD(L13,3)+1,0)+IF(L16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="71">
+      <c r="O13" s="65"/>
+      <c r="P13" s="64">
         <f t="shared" ref="P13" si="288">IF(NOT(P12),MOD(N13,3)+1,0)+IF(N16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="71">
+      <c r="Q13" s="65"/>
+      <c r="R13" s="64">
         <f t="shared" ref="R13" si="289">IF(NOT(R12),MOD(P13,3)+1,0)+IF(P16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="S13" s="72"/>
-      <c r="T13" s="71">
+      <c r="S13" s="65"/>
+      <c r="T13" s="64">
         <f t="shared" ref="T13" si="290">IF(NOT(T12),MOD(R13,3)+1,0)+IF(R16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="U13" s="72"/>
-      <c r="V13" s="71">
+      <c r="U13" s="65"/>
+      <c r="V13" s="64">
         <f t="shared" ref="V13" si="291">IF(NOT(V12),MOD(T13,3)+1,0)+IF(T16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="W13" s="72"/>
-      <c r="X13" s="71">
+      <c r="W13" s="65"/>
+      <c r="X13" s="64">
         <f t="shared" ref="X13" si="292">IF(NOT(X12),MOD(V13,3)+1,0)+IF(V16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="71">
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="64">
         <f t="shared" ref="Z13" si="293">IF(NOT(Z12),MOD(X13,3)+1,0)+IF(X16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="71">
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="64">
         <f t="shared" ref="AB13" si="294">IF(NOT(AB12),MOD(Z13,3)+1,0)+IF(Z16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="71">
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="64">
         <f t="shared" ref="AD13" si="295">IF(NOT(AD12),MOD(AB13,3)+1,0)+IF(AB16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="71">
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="64">
         <f t="shared" ref="AF13" si="296">IF(NOT(AF12),MOD(AD13,3)+1,0)+IF(AD16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="71">
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="64">
         <f t="shared" ref="AH13" si="297">IF(NOT(AH12),MOD(AF13,3)+1,0)+IF(AF16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="71">
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="64">
         <f t="shared" ref="AJ13" si="298">IF(NOT(AJ12),MOD(AH13,3)+1,0)+IF(AH16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="71">
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="64">
         <f t="shared" ref="AL13" si="299">IF(NOT(AL12),MOD(AJ13,3)+1,0)+IF(AJ16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="71">
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="64">
         <f t="shared" ref="AN13" si="300">IF(NOT(AN12),MOD(AL13,3)+1,0)+IF(AL16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="71">
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="64">
         <f t="shared" ref="AP13" si="301">IF(NOT(AP12),MOD(AN13,3)+1,0)+IF(AN16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="71">
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="64">
         <f t="shared" ref="AR13" si="302">IF(NOT(AR12),MOD(AP13,3)+1,0)+IF(AP16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="71">
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="64">
         <f t="shared" ref="AT13" si="303">IF(NOT(AT12),MOD(AR13,3)+1,0)+IF(AR16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="71">
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="64">
         <f t="shared" ref="AV13" si="304">IF(NOT(AV12),MOD(AT13,3)+1,0)+IF(AT16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="71">
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="64">
         <f t="shared" ref="AX13" si="305">IF(NOT(AX12),MOD(AV13,3)+1,0)+IF(AV16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="71">
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="64">
         <f t="shared" ref="AZ13" si="306">IF(NOT(AZ12),MOD(AX13,3)+1,0)+IF(AX16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="72"/>
-      <c r="BB13" s="71">
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="64">
         <f t="shared" ref="BB13" si="307">IF(NOT(BB12),MOD(AZ13,3)+1,0)+IF(AZ16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="BC13" s="72"/>
-      <c r="BD13" s="71">
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="64">
         <f t="shared" ref="BD13" si="308">IF(NOT(BD12),MOD(BB13,3)+1,0)+IF(BB16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="71">
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="64">
         <f t="shared" ref="BF13" si="309">IF(NOT(BF12),MOD(BD13,3)+1,0)+IF(BD16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="71">
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="64">
         <f t="shared" ref="BH13" si="310">IF(NOT(BH12),MOD(BF13,3)+1,0)+IF(BF16,1,0)</f>
         <v>2</v>
       </c>
-      <c r="BI13" s="72"/>
-      <c r="BJ13" s="71">
+      <c r="BI13" s="65"/>
+      <c r="BJ13" s="64">
         <f t="shared" ref="BJ13" si="311">IF(NOT(BJ12),MOD(BH13,3)+1,0)+IF(BH16,1,0)</f>
         <v>3</v>
       </c>
-      <c r="BK13" s="72"/>
+      <c r="BK13" s="65"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
@@ -4570,68 +4446,68 @@
       <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="86"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="86"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="86"/>
-      <c r="AZ15" s="85"/>
-      <c r="BA15" s="86"/>
-      <c r="BB15" s="85"/>
-      <c r="BC15" s="86"/>
-      <c r="BD15" s="85"/>
-      <c r="BE15" s="86"/>
-      <c r="BF15" s="85"/>
-      <c r="BG15" s="86"/>
-      <c r="BH15" s="85"/>
-      <c r="BI15" s="86"/>
-      <c r="BJ15" s="85"/>
-      <c r="BK15" s="86"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="73"/>
+      <c r="BD15" s="72"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="73"/>
+      <c r="BH15" s="72"/>
+      <c r="BI15" s="73"/>
+      <c r="BJ15" s="72"/>
+      <c r="BK15" s="73"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
@@ -4639,66 +4515,66 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="88"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="88"/>
-      <c r="AZ16" s="87"/>
-      <c r="BA16" s="88"/>
-      <c r="BB16" s="87"/>
-      <c r="BC16" s="88"/>
-      <c r="BD16" s="87"/>
-      <c r="BE16" s="88"/>
-      <c r="BF16" s="87"/>
-      <c r="BG16" s="88"/>
-      <c r="BH16" s="87"/>
-      <c r="BI16" s="88"/>
-      <c r="BJ16" s="87"/>
-      <c r="BK16" s="88"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="71"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
@@ -4706,66 +4582,66 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="90"/>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="90"/>
-      <c r="BD17" s="89"/>
-      <c r="BE17" s="90"/>
-      <c r="BF17" s="89"/>
-      <c r="BG17" s="90"/>
-      <c r="BH17" s="89"/>
-      <c r="BI17" s="90"/>
-      <c r="BJ17" s="89"/>
-      <c r="BK17" s="90"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="69"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
@@ -5715,249 +5591,249 @@
       <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="93">
-        <v>0</v>
-      </c>
-      <c r="C22" s="94">
-        <v>0</v>
-      </c>
-      <c r="D22" s="95">
+      <c r="B22" s="60">
+        <v>0</v>
+      </c>
+      <c r="C22" s="61">
+        <v>0</v>
+      </c>
+      <c r="D22" s="62">
         <f>IF(D17,B22,B22+D20)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="63">
         <f>IF(D17,C22,C22+E20)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="62">
         <f>IF(F17,D22,D22+F20)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="96">
+      <c r="G22" s="63">
         <f>IF(F17,E22,E22+G20)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="62">
         <f t="shared" ref="H22" si="483">IF(H17,F22,F22+H20)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="96">
+      <c r="I22" s="63">
         <f t="shared" ref="I22" si="484">IF(H17,G22,G22+I20)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="95">
+      <c r="J22" s="62">
         <f t="shared" ref="J22" si="485">IF(J17,H22,H22+J20)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="96">
+      <c r="K22" s="63">
         <f t="shared" ref="K22" si="486">IF(J17,I22,I22+K20)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="95">
+      <c r="L22" s="62">
         <f t="shared" ref="L22" si="487">IF(L17,J22,J22+L20)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="96">
+      <c r="M22" s="63">
         <f t="shared" ref="M22" si="488">IF(L17,K22,K22+M20)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="95">
+      <c r="N22" s="62">
         <f t="shared" ref="N22" si="489">IF(N17,L22,L22+N20)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="96">
+      <c r="O22" s="63">
         <f t="shared" ref="O22" si="490">IF(N17,M22,M22+O20)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="95">
+      <c r="P22" s="62">
         <f t="shared" ref="P22" si="491">IF(P17,N22,N22+P20)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="96">
+      <c r="Q22" s="63">
         <f t="shared" ref="Q22" si="492">IF(P17,O22,O22+Q20)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="95">
+      <c r="R22" s="62">
         <f t="shared" ref="R22" si="493">IF(R17,P22,P22+R20)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="96">
+      <c r="S22" s="63">
         <f t="shared" ref="S22" si="494">IF(R17,Q22,Q22+S20)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="95">
+      <c r="T22" s="62">
         <f t="shared" ref="T22" si="495">IF(T17,R22,R22+T20)</f>
         <v>0</v>
       </c>
-      <c r="U22" s="96">
+      <c r="U22" s="63">
         <f t="shared" ref="U22" si="496">IF(T17,S22,S22+U20)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="95">
+      <c r="V22" s="62">
         <f t="shared" ref="V22" si="497">IF(V17,T22,T22+V20)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="96">
+      <c r="W22" s="63">
         <f t="shared" ref="W22" si="498">IF(V17,U22,U22+W20)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="95">
+      <c r="X22" s="62">
         <f t="shared" ref="X22" si="499">IF(X17,V22,V22+X20)</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="96">
+      <c r="Y22" s="63">
         <f t="shared" ref="Y22" si="500">IF(X17,W22,W22+Y20)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="95">
+      <c r="Z22" s="62">
         <f t="shared" ref="Z22" si="501">IF(Z17,X22,X22+Z20)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="96">
+      <c r="AA22" s="63">
         <f t="shared" ref="AA22" si="502">IF(Z17,Y22,Y22+AA20)</f>
         <v>0</v>
       </c>
-      <c r="AB22" s="95">
+      <c r="AB22" s="62">
         <f t="shared" ref="AB22" si="503">IF(AB17,Z22,Z22+AB20)</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="96">
+      <c r="AC22" s="63">
         <f t="shared" ref="AC22" si="504">IF(AB17,AA22,AA22+AC20)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="95">
+      <c r="AD22" s="62">
         <f t="shared" ref="AD22" si="505">IF(AD17,AB22,AB22+AD20)</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="96">
+      <c r="AE22" s="63">
         <f t="shared" ref="AE22" si="506">IF(AD17,AC22,AC22+AE20)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="95">
+      <c r="AF22" s="62">
         <f t="shared" ref="AF22" si="507">IF(AF17,AD22,AD22+AF20)</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="96">
+      <c r="AG22" s="63">
         <f t="shared" ref="AG22" si="508">IF(AF17,AE22,AE22+AG20)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="95">
+      <c r="AH22" s="62">
         <f t="shared" ref="AH22" si="509">IF(AH17,AF22,AF22+AH20)</f>
         <v>0</v>
       </c>
-      <c r="AI22" s="96">
+      <c r="AI22" s="63">
         <f t="shared" ref="AI22" si="510">IF(AH17,AG22,AG22+AI20)</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="95">
+      <c r="AJ22" s="62">
         <f t="shared" ref="AJ22" si="511">IF(AJ17,AH22,AH22+AJ20)</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="96">
+      <c r="AK22" s="63">
         <f t="shared" ref="AK22" si="512">IF(AJ17,AI22,AI22+AK20)</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="95">
+      <c r="AL22" s="62">
         <f t="shared" ref="AL22" si="513">IF(AL17,AJ22,AJ22+AL20)</f>
         <v>0</v>
       </c>
-      <c r="AM22" s="96">
+      <c r="AM22" s="63">
         <f t="shared" ref="AM22" si="514">IF(AL17,AK22,AK22+AM20)</f>
         <v>0</v>
       </c>
-      <c r="AN22" s="95">
+      <c r="AN22" s="62">
         <f t="shared" ref="AN22" si="515">IF(AN17,AL22,AL22+AN20)</f>
         <v>0</v>
       </c>
-      <c r="AO22" s="96">
+      <c r="AO22" s="63">
         <f t="shared" ref="AO22" si="516">IF(AN17,AM22,AM22+AO20)</f>
         <v>0</v>
       </c>
-      <c r="AP22" s="95">
+      <c r="AP22" s="62">
         <f t="shared" ref="AP22" si="517">IF(AP17,AN22,AN22+AP20)</f>
         <v>0</v>
       </c>
-      <c r="AQ22" s="96">
+      <c r="AQ22" s="63">
         <f t="shared" ref="AQ22" si="518">IF(AP17,AO22,AO22+AQ20)</f>
         <v>0</v>
       </c>
-      <c r="AR22" s="95">
+      <c r="AR22" s="62">
         <f t="shared" ref="AR22" si="519">IF(AR17,AP22,AP22+AR20)</f>
         <v>0</v>
       </c>
-      <c r="AS22" s="96">
+      <c r="AS22" s="63">
         <f t="shared" ref="AS22" si="520">IF(AR17,AQ22,AQ22+AS20)</f>
         <v>0</v>
       </c>
-      <c r="AT22" s="95">
+      <c r="AT22" s="62">
         <f t="shared" ref="AT22" si="521">IF(AT17,AR22,AR22+AT20)</f>
         <v>0</v>
       </c>
-      <c r="AU22" s="96">
+      <c r="AU22" s="63">
         <f t="shared" ref="AU22" si="522">IF(AT17,AS22,AS22+AU20)</f>
         <v>0</v>
       </c>
-      <c r="AV22" s="95">
+      <c r="AV22" s="62">
         <f t="shared" ref="AV22" si="523">IF(AV17,AT22,AT22+AV20)</f>
         <v>0</v>
       </c>
-      <c r="AW22" s="96">
+      <c r="AW22" s="63">
         <f t="shared" ref="AW22" si="524">IF(AV17,AU22,AU22+AW20)</f>
         <v>0</v>
       </c>
-      <c r="AX22" s="95">
+      <c r="AX22" s="62">
         <f t="shared" ref="AX22" si="525">IF(AX17,AV22,AV22+AX20)</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="96">
+      <c r="AY22" s="63">
         <f t="shared" ref="AY22" si="526">IF(AX17,AW22,AW22+AY20)</f>
         <v>0</v>
       </c>
-      <c r="AZ22" s="95">
+      <c r="AZ22" s="62">
         <f t="shared" ref="AZ22" si="527">IF(AZ17,AX22,AX22+AZ20)</f>
         <v>0</v>
       </c>
-      <c r="BA22" s="96">
+      <c r="BA22" s="63">
         <f t="shared" ref="BA22" si="528">IF(AZ17,AY22,AY22+BA20)</f>
         <v>0</v>
       </c>
-      <c r="BB22" s="95">
+      <c r="BB22" s="62">
         <f t="shared" ref="BB22" si="529">IF(BB17,AZ22,AZ22+BB20)</f>
         <v>0</v>
       </c>
-      <c r="BC22" s="96">
+      <c r="BC22" s="63">
         <f t="shared" ref="BC22" si="530">IF(BB17,BA22,BA22+BC20)</f>
         <v>0</v>
       </c>
-      <c r="BD22" s="95">
+      <c r="BD22" s="62">
         <f t="shared" ref="BD22" si="531">IF(BD17,BB22,BB22+BD20)</f>
         <v>0</v>
       </c>
-      <c r="BE22" s="96">
+      <c r="BE22" s="63">
         <f t="shared" ref="BE22" si="532">IF(BD17,BC22,BC22+BE20)</f>
         <v>0</v>
       </c>
-      <c r="BF22" s="95">
+      <c r="BF22" s="62">
         <f t="shared" ref="BF22" si="533">IF(BF17,BD22,BD22+BF20)</f>
         <v>0</v>
       </c>
-      <c r="BG22" s="96">
+      <c r="BG22" s="63">
         <f t="shared" ref="BG22" si="534">IF(BF17,BE22,BE22+BG20)</f>
         <v>0</v>
       </c>
-      <c r="BH22" s="95">
+      <c r="BH22" s="62">
         <f t="shared" ref="BH22" si="535">IF(BH17,BF22,BF22+BH20)</f>
         <v>0</v>
       </c>
-      <c r="BI22" s="96">
+      <c r="BI22" s="63">
         <f t="shared" ref="BI22" si="536">IF(BH17,BG22,BG22+BI20)</f>
         <v>0</v>
       </c>
-      <c r="BJ22" s="95">
+      <c r="BJ22" s="62">
         <f t="shared" ref="BJ22" si="537">IF(BJ17,BH22,BH22+BJ20)</f>
         <v>0</v>
       </c>
-      <c r="BK22" s="96">
+      <c r="BK22" s="63">
         <f t="shared" ref="BK22" si="538">IF(BJ17,BI22,BI22+BK20)</f>
         <v>0</v>
       </c>
@@ -5966,10 +5842,10 @@
       <c r="A23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="58">
         <v>11</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="59">
         <v>6</v>
       </c>
       <c r="D23" s="54">
@@ -6217,321 +6093,321 @@
       <c r="A24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="92">
         <f>COUNTA(Player_List)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="69">
+      <c r="C24" s="93"/>
+      <c r="D24" s="66">
         <f>COUNTA(D27:D36)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="69">
+      <c r="E24" s="67"/>
+      <c r="F24" s="66">
         <f ca="1">COUNTA(F27:F36)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="69">
+      <c r="G24" s="67"/>
+      <c r="H24" s="66">
         <f t="shared" ref="H24" ca="1" si="541">COUNTA(H27:H36)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="69">
+      <c r="I24" s="67"/>
+      <c r="J24" s="66">
         <f t="shared" ref="J24" ca="1" si="542">COUNTA(J27:J36)</f>
         <v>1</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="69">
+      <c r="K24" s="67"/>
+      <c r="L24" s="66">
         <f t="shared" ref="L24" ca="1" si="543">COUNTA(L27:L36)</f>
         <v>1</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="69">
+      <c r="M24" s="67"/>
+      <c r="N24" s="66">
         <f t="shared" ref="N24" ca="1" si="544">COUNTA(N27:N36)</f>
         <v>1</v>
       </c>
-      <c r="O24" s="70"/>
-      <c r="P24" s="69">
+      <c r="O24" s="67"/>
+      <c r="P24" s="66">
         <f t="shared" ref="P24" ca="1" si="545">COUNTA(P27:P36)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="69">
+      <c r="Q24" s="67"/>
+      <c r="R24" s="66">
         <f t="shared" ref="R24" ca="1" si="546">COUNTA(R27:R36)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="70"/>
-      <c r="T24" s="69">
+      <c r="S24" s="67"/>
+      <c r="T24" s="66">
         <f t="shared" ref="T24" ca="1" si="547">COUNTA(T27:T36)</f>
         <v>1</v>
       </c>
-      <c r="U24" s="70"/>
-      <c r="V24" s="69">
+      <c r="U24" s="67"/>
+      <c r="V24" s="66">
         <f t="shared" ref="V24" ca="1" si="548">COUNTA(V27:V36)</f>
         <v>1</v>
       </c>
-      <c r="W24" s="70"/>
-      <c r="X24" s="69">
+      <c r="W24" s="67"/>
+      <c r="X24" s="66">
         <f t="shared" ref="X24" ca="1" si="549">COUNTA(X27:X36)</f>
         <v>1</v>
       </c>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="69">
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="66">
         <f t="shared" ref="Z24" ca="1" si="550">COUNTA(Z27:Z36)</f>
         <v>1</v>
       </c>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="69">
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="66">
         <f t="shared" ref="AB24" ca="1" si="551">COUNTA(AB27:AB36)</f>
         <v>1</v>
       </c>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="69">
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="66">
         <f t="shared" ref="AD24" ca="1" si="552">COUNTA(AD27:AD36)</f>
         <v>1</v>
       </c>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="69">
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="66">
         <f t="shared" ref="AF24" ca="1" si="553">COUNTA(AF27:AF36)</f>
         <v>1</v>
       </c>
-      <c r="AG24" s="70"/>
-      <c r="AH24" s="69">
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="66">
         <f t="shared" ref="AH24" ca="1" si="554">COUNTA(AH27:AH36)</f>
         <v>1</v>
       </c>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="69">
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="66">
         <f t="shared" ref="AJ24" ca="1" si="555">COUNTA(AJ27:AJ36)</f>
         <v>1</v>
       </c>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="69">
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="66">
         <f t="shared" ref="AL24" ca="1" si="556">COUNTA(AL27:AL36)</f>
         <v>1</v>
       </c>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="69">
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="66">
         <f t="shared" ref="AN24" ca="1" si="557">COUNTA(AN27:AN36)</f>
         <v>1</v>
       </c>
-      <c r="AO24" s="70"/>
-      <c r="AP24" s="69">
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="66">
         <f t="shared" ref="AP24" ca="1" si="558">COUNTA(AP27:AP36)</f>
         <v>1</v>
       </c>
-      <c r="AQ24" s="70"/>
-      <c r="AR24" s="69">
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="66">
         <f t="shared" ref="AR24" ca="1" si="559">COUNTA(AR27:AR36)</f>
         <v>1</v>
       </c>
-      <c r="AS24" s="70"/>
-      <c r="AT24" s="69">
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="66">
         <f t="shared" ref="AT24" ca="1" si="560">COUNTA(AT27:AT36)</f>
         <v>1</v>
       </c>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="69">
+      <c r="AU24" s="67"/>
+      <c r="AV24" s="66">
         <f t="shared" ref="AV24" ca="1" si="561">COUNTA(AV27:AV36)</f>
         <v>1</v>
       </c>
-      <c r="AW24" s="70"/>
-      <c r="AX24" s="69">
+      <c r="AW24" s="67"/>
+      <c r="AX24" s="66">
         <f t="shared" ref="AX24" ca="1" si="562">COUNTA(AX27:AX36)</f>
         <v>1</v>
       </c>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="69">
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="66">
         <f t="shared" ref="AZ24" ca="1" si="563">COUNTA(AZ27:AZ36)</f>
         <v>1</v>
       </c>
-      <c r="BA24" s="70"/>
-      <c r="BB24" s="69">
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="66">
         <f t="shared" ref="BB24" ca="1" si="564">COUNTA(BB27:BB36)</f>
         <v>1</v>
       </c>
-      <c r="BC24" s="70"/>
-      <c r="BD24" s="69">
+      <c r="BC24" s="67"/>
+      <c r="BD24" s="66">
         <f t="shared" ref="BD24" ca="1" si="565">COUNTA(BD27:BD36)</f>
         <v>1</v>
       </c>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="69">
+      <c r="BE24" s="67"/>
+      <c r="BF24" s="66">
         <f t="shared" ref="BF24" ca="1" si="566">COUNTA(BF27:BF36)</f>
         <v>1</v>
       </c>
-      <c r="BG24" s="70"/>
-      <c r="BH24" s="69">
+      <c r="BG24" s="67"/>
+      <c r="BH24" s="66">
         <f t="shared" ref="BH24" ca="1" si="567">COUNTA(BH27:BH36)</f>
         <v>1</v>
       </c>
-      <c r="BI24" s="70"/>
-      <c r="BJ24" s="69">
+      <c r="BI24" s="67"/>
+      <c r="BJ24" s="66">
         <f t="shared" ref="BJ24" ca="1" si="568">COUNTA(BJ27:BJ36)</f>
         <v>1</v>
       </c>
-      <c r="BK24" s="70"/>
+      <c r="BK24" s="67"/>
     </row>
     <row r="25" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="58" t="str">
+      <c r="B25" s="84" t="str">
         <f ca="1">IFERROR(MOD(MATCH(B11,Player_List,0),B24)+1,"")</f>
         <v/>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="71">
+      <c r="C25" s="85"/>
+      <c r="D25" s="64">
         <f ca="1">IFERROR(MOD(MATCH(D11,_xlfn.ANCHORARRAY(D27),0),D24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="71">
+      <c r="E25" s="65"/>
+      <c r="F25" s="64">
         <f ca="1">IFERROR(MOD(MATCH(F11,_xlfn.ANCHORARRAY(F27),0),F24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="71">
+      <c r="G25" s="65"/>
+      <c r="H25" s="64">
         <f t="shared" ref="H25" ca="1" si="569">IFERROR(MOD(MATCH(H11,_xlfn.ANCHORARRAY(H27),0),H24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="71">
+      <c r="I25" s="65"/>
+      <c r="J25" s="64">
         <f t="shared" ref="J25" ca="1" si="570">IFERROR(MOD(MATCH(J11,_xlfn.ANCHORARRAY(J27),0),J24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="K25" s="72"/>
-      <c r="L25" s="71">
+      <c r="K25" s="65"/>
+      <c r="L25" s="64">
         <f t="shared" ref="L25" ca="1" si="571">IFERROR(MOD(MATCH(L11,_xlfn.ANCHORARRAY(L27),0),L24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="M25" s="72"/>
-      <c r="N25" s="71">
+      <c r="M25" s="65"/>
+      <c r="N25" s="64">
         <f t="shared" ref="N25" ca="1" si="572">IFERROR(MOD(MATCH(N11,_xlfn.ANCHORARRAY(N27),0),N24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="O25" s="72"/>
-      <c r="P25" s="71">
+      <c r="O25" s="65"/>
+      <c r="P25" s="64">
         <f t="shared" ref="P25" ca="1" si="573">IFERROR(MOD(MATCH(P11,_xlfn.ANCHORARRAY(P27),0),P24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="71">
+      <c r="Q25" s="65"/>
+      <c r="R25" s="64">
         <f t="shared" ref="R25" ca="1" si="574">IFERROR(MOD(MATCH(R11,_xlfn.ANCHORARRAY(R27),0),R24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="S25" s="72"/>
-      <c r="T25" s="71">
+      <c r="S25" s="65"/>
+      <c r="T25" s="64">
         <f t="shared" ref="T25" ca="1" si="575">IFERROR(MOD(MATCH(T11,_xlfn.ANCHORARRAY(T27),0),T24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="U25" s="72"/>
-      <c r="V25" s="71">
+      <c r="U25" s="65"/>
+      <c r="V25" s="64">
         <f t="shared" ref="V25" ca="1" si="576">IFERROR(MOD(MATCH(V11,_xlfn.ANCHORARRAY(V27),0),V24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="W25" s="72"/>
-      <c r="X25" s="71">
+      <c r="W25" s="65"/>
+      <c r="X25" s="64">
         <f t="shared" ref="X25" ca="1" si="577">IFERROR(MOD(MATCH(X11,_xlfn.ANCHORARRAY(X27),0),X24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="71">
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="64">
         <f t="shared" ref="Z25" ca="1" si="578">IFERROR(MOD(MATCH(Z11,_xlfn.ANCHORARRAY(Z27),0),Z24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="71">
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="64">
         <f t="shared" ref="AB25" ca="1" si="579">IFERROR(MOD(MATCH(AB11,_xlfn.ANCHORARRAY(AB27),0),AB24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="71">
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="64">
         <f t="shared" ref="AD25" ca="1" si="580">IFERROR(MOD(MATCH(AD11,_xlfn.ANCHORARRAY(AD27),0),AD24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="71">
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="64">
         <f t="shared" ref="AF25" ca="1" si="581">IFERROR(MOD(MATCH(AF11,_xlfn.ANCHORARRAY(AF27),0),AF24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="71">
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="64">
         <f t="shared" ref="AH25" ca="1" si="582">IFERROR(MOD(MATCH(AH11,_xlfn.ANCHORARRAY(AH27),0),AH24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="71">
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="64">
         <f t="shared" ref="AJ25" ca="1" si="583">IFERROR(MOD(MATCH(AJ11,_xlfn.ANCHORARRAY(AJ27),0),AJ24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="71">
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="64">
         <f t="shared" ref="AL25" ca="1" si="584">IFERROR(MOD(MATCH(AL11,_xlfn.ANCHORARRAY(AL27),0),AL24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AM25" s="72"/>
-      <c r="AN25" s="71">
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="64">
         <f t="shared" ref="AN25" ca="1" si="585">IFERROR(MOD(MATCH(AN11,_xlfn.ANCHORARRAY(AN27),0),AN24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="71">
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="64">
         <f t="shared" ref="AP25" ca="1" si="586">IFERROR(MOD(MATCH(AP11,_xlfn.ANCHORARRAY(AP27),0),AP24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="71">
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="64">
         <f t="shared" ref="AR25" ca="1" si="587">IFERROR(MOD(MATCH(AR11,_xlfn.ANCHORARRAY(AR27),0),AR24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="71">
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="64">
         <f t="shared" ref="AT25" ca="1" si="588">IFERROR(MOD(MATCH(AT11,_xlfn.ANCHORARRAY(AT27),0),AT24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="71">
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="64">
         <f t="shared" ref="AV25" ca="1" si="589">IFERROR(MOD(MATCH(AV11,_xlfn.ANCHORARRAY(AV27),0),AV24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="71">
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="64">
         <f t="shared" ref="AX25" ca="1" si="590">IFERROR(MOD(MATCH(AX11,_xlfn.ANCHORARRAY(AX27),0),AX24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="71">
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="64">
         <f t="shared" ref="AZ25" ca="1" si="591">IFERROR(MOD(MATCH(AZ11,_xlfn.ANCHORARRAY(AZ27),0),AZ24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="BA25" s="72"/>
-      <c r="BB25" s="71">
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="64">
         <f t="shared" ref="BB25" ca="1" si="592">IFERROR(MOD(MATCH(BB11,_xlfn.ANCHORARRAY(BB27),0),BB24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="BC25" s="72"/>
-      <c r="BD25" s="71">
+      <c r="BC25" s="65"/>
+      <c r="BD25" s="64">
         <f t="shared" ref="BD25" ca="1" si="593">IFERROR(MOD(MATCH(BD11,_xlfn.ANCHORARRAY(BD27),0),BD24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="BE25" s="72"/>
-      <c r="BF25" s="71">
+      <c r="BE25" s="65"/>
+      <c r="BF25" s="64">
         <f t="shared" ref="BF25" ca="1" si="594">IFERROR(MOD(MATCH(BF11,_xlfn.ANCHORARRAY(BF27),0),BF24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="BG25" s="72"/>
-      <c r="BH25" s="71">
+      <c r="BG25" s="65"/>
+      <c r="BH25" s="64">
         <f t="shared" ref="BH25" ca="1" si="595">IFERROR(MOD(MATCH(BH11,_xlfn.ANCHORARRAY(BH27),0),BH24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="BI25" s="72"/>
-      <c r="BJ25" s="71">
+      <c r="BI25" s="65"/>
+      <c r="BJ25" s="64">
         <f t="shared" ref="BJ25" ca="1" si="596">IFERROR(MOD(MATCH(BJ11,_xlfn.ANCHORARRAY(BJ27),0),BJ24)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="BK25" s="72"/>
+      <c r="BK25" s="65"/>
     </row>
     <row r="26" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
@@ -11321,29 +11197,360 @@
       <c r="C1001" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="398">
-    <mergeCell ref="BD25:BE25"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BH25:BI25"/>
-    <mergeCell ref="BJ25:BK25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
+  <mergeCells count="399">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="BH8:BI8"/>
+    <mergeCell ref="BJ8:BK8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BJ12:BK12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AY12"/>
+    <mergeCell ref="AZ12:BA12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BJ13:BK13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="BB13:BC13"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BJ15:BK15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="AZ15:BA15"/>
+    <mergeCell ref="BB15:BC15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BJ16:BK16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="AZ16:BA16"/>
+    <mergeCell ref="BB16:BC16"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="BJ17:BK17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="BF24:BG24"/>
     <mergeCell ref="BH24:BI24"/>
     <mergeCell ref="BJ24:BK24"/>
@@ -11368,366 +11575,36 @@
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="BJ17:BK17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AY17"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BJ16:BK16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:AY16"/>
-    <mergeCell ref="AZ16:BA16"/>
-    <mergeCell ref="BB16:BC16"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BJ15:BK15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="AZ15:BA15"/>
-    <mergeCell ref="BB15:BC15"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BJ13:BK13"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AZ13:BA13"/>
-    <mergeCell ref="BB13:BC13"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BJ12:BK12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AY12"/>
-    <mergeCell ref="AZ12:BA12"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="BH8:BI8"/>
-    <mergeCell ref="BJ8:BK8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BG8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BJ7:BK7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BB7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BF7:BG7"/>
-    <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BH1:BI1"/>
-    <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="BD25:BE25"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BH25:BI25"/>
+    <mergeCell ref="BJ25:BK25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="23" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="73" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="expression" dxfId="22" priority="72">
+    <cfRule type="expression" dxfId="10" priority="72">
       <formula>E27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11746,12 +11623,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F36">
-    <cfRule type="expression" dxfId="21" priority="65">
+    <cfRule type="expression" dxfId="9" priority="65">
       <formula>G27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="20" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11770,12 +11647,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H36">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:I17">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11794,22 +11671,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 F14 D14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14 BH14 BJ14">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>OR(D$13,NOT(D$12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14 BG14 BI14 BK14 I14 G14 E14">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>OR(D$13,NOT(D$12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J36 L27:L36 N27:N36 P27:P36 R27:R36 T27:T36 V27:V36 X27:X36 Z27:Z36 AB27:AB36 AD27:AD36 AF27:AF36 AH27:AH36 AJ27:AJ36 AL27:AL36 AN27:AN36 AP27:AP36 AR27:AR36 AT27:AT36 AV27:AV36 AX27:AX36 AZ27:AZ36 BB27:BB36 BD27:BD36 BF27:BF36 BH27:BH36 BJ27:BJ36">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>K27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BK17">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11827,7 +11704,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 F22 H22 L22 J22 N22 P22 R22 T22 V22 X22 Z22 AB22 AD22 AF22 AH22 AJ22 AL22 AN22 AP22 AR22 AT22 AV22 AX22 AZ22 BB22 BD22 BF22 BH22 BJ22">
+  <conditionalFormatting sqref="F22 D22 H22 L22 J22 N22 P22 R22 T22 V22 X22 Z22 AB22 AD22 AF22 AH22 AJ22 AL22 AN22 AP22 AR22 AT22 AV22 AX22 AZ22 BB22 BD22 BF22 BH22 BJ22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -11837,7 +11714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22 G22 I22 M22 K22 O22 Q22 S22 U22 W22 Y22 AA22 AC22 AE22 AG22 AI22 AK22 AM22 AO22 AQ22 AS22 AU22 AW22 AY22 BA22 BC22 BE22 BG22 BI22 BK22">
+  <conditionalFormatting sqref="G22 E22 I22 M22 K22 O22 Q22 S22 U22 W22 Y22 AA22 AC22 AE22 AG22 AI22 AK22 AM22 AO22 AQ22 AS22 AU22 AW22 AY22 BA22 BC22 BE22 BG22 BI22 BK22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -11848,10 +11725,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:BK15">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Liberal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Fascist"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11877,7 +11754,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Veto" error="Please enter TRUE or leave the cell blank_x000a__x000a_" sqref="D16:BK16" xr:uid="{AA141C55-4D68-471E-821F-9D67DD7EBF9E}">
       <formula1>"TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chancellor" error="Please enter a player from the Player Alive List_x000a_Please enter the player that has been designated as chancellor" sqref="E11 G11 I11 K11 M11 O11 Q11 S11 U11 W11 Y11 AA11 AC11 AE11 AG11 AI11 AK11 AM11 AO11 AQ11 AS11 AU11 AW11 AY11 BA11 BC11 BE11 BG11 BI11 BK11" xr:uid="{3844BD3E-9E36-45BA-9D8A-D1D6E03ABCA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chancellor" error="Please enter a player from the People Alive List_x000a_Please enter the player that has been designated as chancellor" sqref="E11 G11 I11 K11 M11 O11 Q11 S11 U11 W11 Y11 AA11 AC11 AE11 AG11 AI11 AK11 AM11 AO11 AQ11 AS11 AU11 AW11 AY11 BA11 BC11 BE11 BG11 BI11 BK11" xr:uid="{3844BD3E-9E36-45BA-9D8A-D1D6E03ABCA4}">
       <formula1>_xlfn.ANCHORARRAY(D27)</formula1>
     </dataValidation>
   </dataValidations>
